--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2913846.831101044</v>
+        <v>2913182.050019628</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480303</v>
+        <v>362195.2019480307</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8524085.358132059</v>
+        <v>8524085.358132061</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>37.3525291234026</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860083</v>
+        <v>49.79374050860091</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.35252912340288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>80.87367775108052</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.58962378130646</v>
+        <v>14.58962378130654</v>
       </c>
       <c r="U12" t="n">
-        <v>36.87179703458437</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="V12" t="n">
-        <v>40.29306373012034</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172968</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X12" t="n">
-        <v>16.9570572541887</v>
+        <v>43.46450919166737</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.02842894874371</v>
+        <v>23.02842894874379</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791194</v>
+        <v>2.836158859791279</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440341</v>
+        <v>34.9899630044035</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542046</v>
+        <v>23.38309022542055</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171407</v>
+        <v>88.30041113171416</v>
       </c>
       <c r="V13" t="n">
-        <v>44.753157999168</v>
+        <v>44.75315799916808</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405342</v>
+        <v>89.9548499040535</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296062</v>
+        <v>21.56359822296071</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888651</v>
+        <v>16.7854156288866</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.9364036925155</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>87.14626963200352</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562707</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312422</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575477</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>22.22683499618222</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>14.58962378130651</v>
       </c>
       <c r="U15" t="n">
-        <v>65.16233974105288</v>
+        <v>36.87179703458443</v>
       </c>
       <c r="V15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="W15" t="n">
         <v>66.34872639172974</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C17" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594578</v>
       </c>
       <c r="D17" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E17" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F17" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428354</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960533931</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X17" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="18">
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>87.14626963200357</v>
       </c>
       <c r="S18" t="n">
-        <v>87.14626963200372</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428337</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="D21" t="n">
-        <v>87.14626963200369</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="V21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>87.1462696320035</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282763</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="24">
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="T24" t="n">
-        <v>81.08256192171784</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>98.93990648501786</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>98.93990648501786</v>
+        <v>81.08256192171773</v>
       </c>
       <c r="W24" t="n">
-        <v>98.93990648501786</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>137.3447830355654</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E26" t="n">
         <v>158.6181977160227</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G26" t="n">
         <v>205.9656611324474</v>
@@ -2573,7 +2573,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279265</v>
+        <v>14.38744503279262</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423198</v>
+        <v>9.55352356542317</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826931</v>
+        <v>37.28888334826928</v>
       </c>
       <c r="V26" t="n">
         <v>108.0190692635386</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.084766620974946</v>
+        <v>2.084766620974918</v>
       </c>
       <c r="U27" t="n">
-        <v>128.2549689910639</v>
+        <v>92.99841111114188</v>
       </c>
       <c r="V27" t="n">
-        <v>27.78820656978883</v>
+        <v>27.7882065697888</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139817</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857186</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.52357178841217</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.4851058440719</v>
+        <v>22.48510584407187</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508895</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138256</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883649</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372191</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X28" t="n">
-        <v>9.05874106262911</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468555</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529544</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3278900205298</v>
@@ -2922,16 +2922,16 @@
         <v>191.4735447740308</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9454809665884</v>
+        <v>98.16711513973254</v>
       </c>
       <c r="U30" t="n">
-        <v>24.3669398742528</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V30" t="n">
         <v>27.78820656978877</v>
       </c>
       <c r="W30" t="n">
-        <v>91.98370514517958</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X30" t="n">
         <v>4.45220009385713</v>
@@ -3032,22 +3032,22 @@
         <v>137.3447830355654</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E32" t="n">
         <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9656611324475</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H32" t="n">
         <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529552</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279267</v>
+        <v>14.38744503279261</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423205</v>
+        <v>9.553523565423177</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826931</v>
+        <v>37.28888334826928</v>
       </c>
       <c r="V32" t="n">
         <v>108.0190692635386</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X32" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="33">
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T33" t="n">
-        <v>2.084766620974947</v>
+        <v>2.084766620974918</v>
       </c>
       <c r="U33" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V33" t="n">
-        <v>27.78820656978883</v>
+        <v>27.7882065697888</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.84386923139814</v>
       </c>
       <c r="X33" t="n">
-        <v>161.5964641668709</v>
+        <v>94.47084090232882</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5235717884122</v>
+        <v>10.52357178841217</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407191</v>
+        <v>22.48510584407187</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508895</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138256</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V34" t="n">
-        <v>32.24830083883649</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372191</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X34" t="n">
-        <v>9.05874106262911</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468555</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F35" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G35" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H35" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.7306207275409</v>
+        <v>141.730620727541</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>24.42420025124199</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449328019</v>
+        <v>82.31300904710233</v>
       </c>
       <c r="W36" t="n">
-        <v>26.14963688610263</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D38" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E38" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F38" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G38" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H38" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X38" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.7306207275409</v>
+        <v>141.730620727541</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9454809665884</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09397422449328019</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W39" t="n">
-        <v>144.6102470036392</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>116.4801792287397</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131837</v>
+        <v>97.21721295131834</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6443029491046</v>
+        <v>162.6443029491045</v>
       </c>
       <c r="G41" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H41" t="n">
-        <v>106.345630928608</v>
+        <v>106.3456309286079</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973825</v>
+        <v>9.594651002973791</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824311</v>
+        <v>80.32483691824308</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485798</v>
+        <v>97.34151713485795</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>141.7321230489923</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>65.86365780397286</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09397422449333703</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610266</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608707</v>
+        <v>48.10132162608704</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540996</v>
+        <v>4.554068493540967</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842642</v>
+        <v>49.75576039842639</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>178.2714287871519</v>
       </c>
       <c r="H44" t="n">
-        <v>106.345630928608</v>
+        <v>106.3456309286079</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
-        <v>130.4985042460956</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0.09397422449333703</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610268</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>116.8876979929438</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.8544919986175</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="C11" t="n">
-        <v>107.8544919986175</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="D11" t="n">
-        <v>107.8544919986175</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="E11" t="n">
-        <v>107.8544919986175</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="F11" t="n">
-        <v>107.8544919986175</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="G11" t="n">
-        <v>7.915192518801432</v>
+        <v>45.64501991617778</v>
       </c>
       <c r="H11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J11" t="n">
-        <v>46.57881336757697</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K11" t="n">
-        <v>144.5293207877447</v>
+        <v>88.92054574596133</v>
       </c>
       <c r="L11" t="n">
-        <v>193.0932775020868</v>
+        <v>137.4845024603035</v>
       </c>
       <c r="M11" t="n">
-        <v>276.0059963039872</v>
+        <v>220.3972212622038</v>
       </c>
       <c r="N11" t="n">
-        <v>353.4178935616866</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="O11" t="n">
-        <v>389.6063942513662</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P11" t="n">
-        <v>389.6063942513662</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513662</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U11" t="n">
-        <v>345.4629183556263</v>
+        <v>345.4629183556253</v>
       </c>
       <c r="V11" t="n">
-        <v>345.4629183556263</v>
+        <v>245.5236188758095</v>
       </c>
       <c r="W11" t="n">
-        <v>345.4629183556263</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="X11" t="n">
-        <v>245.5236188758102</v>
+        <v>145.5843193959936</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.7937914784336</v>
+        <v>145.5843193959936</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C12" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K12" t="n">
-        <v>7.915192518801432</v>
+        <v>46.88760930735563</v>
       </c>
       <c r="L12" t="n">
-        <v>105.8656999389692</v>
+        <v>115.0401959957311</v>
       </c>
       <c r="M12" t="n">
-        <v>203.8162073591369</v>
+        <v>115.0401959957311</v>
       </c>
       <c r="N12" t="n">
-        <v>297.8091185199039</v>
+        <v>212.9907034158986</v>
       </c>
       <c r="O12" t="n">
-        <v>395.7596259400716</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569546</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="R12" t="n">
-        <v>389.6346686569546</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="S12" t="n">
-        <v>307.9440850700046</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="T12" t="n">
-        <v>293.2070913515132</v>
+        <v>374.8976749384622</v>
       </c>
       <c r="U12" t="n">
-        <v>255.9628519226401</v>
+        <v>274.9583754586464</v>
       </c>
       <c r="V12" t="n">
-        <v>215.2627875487812</v>
+        <v>175.0190759788306</v>
       </c>
       <c r="W12" t="n">
-        <v>148.2438720015795</v>
+        <v>75.07977649901471</v>
       </c>
       <c r="X12" t="n">
-        <v>131.1155313407829</v>
+        <v>31.17623186096687</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E13" t="n">
-        <v>7.915192518801432</v>
+        <v>66.00811133212768</v>
       </c>
       <c r="F13" t="n">
-        <v>68.72987773596833</v>
+        <v>66.00811133212768</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0736481975052</v>
+        <v>66.00811133212768</v>
       </c>
       <c r="H13" t="n">
-        <v>134.3063728366048</v>
+        <v>66.00811133212768</v>
       </c>
       <c r="I13" t="n">
-        <v>156.1040927704369</v>
+        <v>66.00811133212768</v>
       </c>
       <c r="J13" t="n">
-        <v>235.789579014187</v>
+        <v>145.6935975758777</v>
       </c>
       <c r="K13" t="n">
-        <v>235.789579014187</v>
+        <v>145.6935975758777</v>
       </c>
       <c r="L13" t="n">
-        <v>235.789579014187</v>
+        <v>243.6441049960452</v>
       </c>
       <c r="M13" t="n">
-        <v>235.789579014187</v>
+        <v>333.7400864343554</v>
       </c>
       <c r="N13" t="n">
-        <v>333.7400864343547</v>
+        <v>333.7400864343554</v>
       </c>
       <c r="O13" t="n">
-        <v>333.7400864343547</v>
+        <v>333.7400864343554</v>
       </c>
       <c r="P13" t="n">
-        <v>333.7400864343547</v>
+        <v>333.7400864343554</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343547</v>
+        <v>333.7400864343554</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052727</v>
+        <v>330.8752795052733</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311278</v>
+        <v>295.5318825311283</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751475</v>
+        <v>271.9125994751479</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986687</v>
+        <v>182.720264998669</v>
       </c>
       <c r="V13" t="n">
-        <v>137.515054898499</v>
+        <v>137.5150548984992</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692986</v>
+        <v>46.65157014693001</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050498</v>
+        <v>24.87015780050505</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.4596329133923</v>
+        <v>195.881026980439</v>
       </c>
       <c r="C14" t="n">
-        <v>148.4596329133923</v>
+        <v>95.94172750062316</v>
       </c>
       <c r="D14" t="n">
-        <v>148.4596329133923</v>
+        <v>95.94172750062316</v>
       </c>
       <c r="E14" t="n">
-        <v>48.52033343357627</v>
+        <v>95.94172750062316</v>
       </c>
       <c r="F14" t="n">
-        <v>48.52033343357627</v>
+        <v>95.94172750062316</v>
       </c>
       <c r="G14" t="n">
-        <v>48.52033343357627</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357627</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J14" t="n">
-        <v>7.915192518801432</v>
+        <v>88.92054574596133</v>
       </c>
       <c r="K14" t="n">
-        <v>7.915192518801432</v>
+        <v>88.92054574596133</v>
       </c>
       <c r="L14" t="n">
-        <v>56.47914923314358</v>
+        <v>137.4845024603035</v>
       </c>
       <c r="M14" t="n">
-        <v>139.391868035044</v>
+        <v>220.3972212622038</v>
       </c>
       <c r="N14" t="n">
-        <v>216.8037652927433</v>
+        <v>297.8091185199032</v>
       </c>
       <c r="O14" t="n">
-        <v>252.9922659824229</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="P14" t="n">
-        <v>350.9427734025907</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308552</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T14" t="n">
-        <v>346.3144916785776</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U14" t="n">
-        <v>346.3144916785776</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3144916785776</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W14" t="n">
-        <v>346.3144916785776</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="X14" t="n">
-        <v>346.3144916785776</v>
+        <v>195.881026980439</v>
       </c>
       <c r="Y14" t="n">
-        <v>246.3751921987615</v>
+        <v>195.881026980439</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.8544919986175</v>
+        <v>30.36654099979356</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K15" t="n">
-        <v>17.08968857556383</v>
+        <v>17.0896885755636</v>
       </c>
       <c r="L15" t="n">
-        <v>115.0401959957316</v>
+        <v>115.0401959957311</v>
       </c>
       <c r="M15" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158986</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158986</v>
       </c>
       <c r="O15" t="n">
-        <v>310.941210836067</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.7596259400716</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="R15" t="n">
-        <v>395.7596259400716</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="S15" t="n">
-        <v>395.7596259400716</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="T15" t="n">
-        <v>381.0226322215802</v>
+        <v>374.8976749384623</v>
       </c>
       <c r="U15" t="n">
-        <v>315.2020870285975</v>
+        <v>337.6534355095891</v>
       </c>
       <c r="V15" t="n">
-        <v>215.2627875487814</v>
+        <v>237.7141360297733</v>
       </c>
       <c r="W15" t="n">
-        <v>148.2438720015796</v>
+        <v>170.6952204825715</v>
       </c>
       <c r="X15" t="n">
-        <v>131.1155313407829</v>
+        <v>153.5668798217748</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.8544919986175</v>
+        <v>130.3058404796094</v>
       </c>
     </row>
     <row r="16">
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C16" t="n">
-        <v>41.47488196997784</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D16" t="n">
-        <v>96.09635683520327</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E16" t="n">
-        <v>96.09635683520327</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F16" t="n">
-        <v>96.09635683520327</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G16" t="n">
-        <v>127.4401272967401</v>
+        <v>39.2589629803382</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6728519358396</v>
+        <v>39.2589629803382</v>
       </c>
       <c r="I16" t="n">
-        <v>161.6728519358396</v>
+        <v>74.56437500621465</v>
       </c>
       <c r="J16" t="n">
-        <v>161.6728519358396</v>
+        <v>74.56437500621465</v>
       </c>
       <c r="K16" t="n">
-        <v>161.6728519358396</v>
+        <v>74.56437500621465</v>
       </c>
       <c r="L16" t="n">
-        <v>161.6728519358396</v>
+        <v>172.5148824263821</v>
       </c>
       <c r="M16" t="n">
-        <v>161.6728519358396</v>
+        <v>235.7895790141876</v>
       </c>
       <c r="N16" t="n">
-        <v>162.9433995195209</v>
+        <v>235.7895790141876</v>
       </c>
       <c r="O16" t="n">
-        <v>162.9433995195209</v>
+        <v>235.7895790141876</v>
       </c>
       <c r="P16" t="n">
-        <v>260.8939069396886</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="Q16" t="n">
         <v>333.7400864343551</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052731</v>
+        <v>330.875279505273</v>
       </c>
       <c r="S16" t="n">
         <v>295.5318825311281</v>
@@ -5470,16 +5470,16 @@
         <v>182.7202649986689</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984992</v>
+        <v>137.5150548984991</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692997</v>
+        <v>46.65157014692995</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050504</v>
+        <v>24.87015780050502</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271184</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796987</v>
+        <v>239.1706370796983</v>
       </c>
       <c r="D17" t="n">
-        <v>231.165300941321</v>
+        <v>231.1653009413205</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368737</v>
+        <v>189.1127401368732</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037624</v>
+        <v>115.019434303762</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666368</v>
+        <v>25.14115287666358</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L17" t="n">
-        <v>56.47914923314358</v>
+        <v>56.47914923314356</v>
       </c>
       <c r="M17" t="n">
-        <v>139.391868035044</v>
+        <v>139.3918680350439</v>
       </c>
       <c r="N17" t="n">
         <v>216.8037652927433</v>
@@ -5537,28 +5537,28 @@
         <v>252.9922659824229</v>
       </c>
       <c r="R17" t="n">
-        <v>307.9818972369142</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="S17" t="n">
-        <v>307.9818972369142</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="T17" t="n">
-        <v>307.9818972369142</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165512</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203404</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946102</v>
+        <v>357.3905103946097</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984316</v>
+        <v>304.4221360984314</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K18" t="n">
-        <v>46.88760930735565</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L18" t="n">
-        <v>115.0401959957316</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0401959957316</v>
+        <v>203.8162073591364</v>
       </c>
       <c r="N18" t="n">
-        <v>212.9907034158993</v>
+        <v>301.7667147793039</v>
       </c>
       <c r="O18" t="n">
-        <v>310.941210836067</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R18" t="n">
-        <v>395.7596259400716</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="S18" t="n">
-        <v>307.7330909582496</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="T18" t="n">
-        <v>307.7330909582496</v>
+        <v>307.7330909582489</v>
       </c>
       <c r="U18" t="n">
-        <v>307.7330909582496</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="V18" t="n">
-        <v>307.7330909582496</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="W18" t="n">
-        <v>207.7937914784336</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="X18" t="n">
-        <v>207.7937914784336</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="Y18" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271188</v>
+        <v>259.7349002271185</v>
       </c>
       <c r="C20" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413212</v>
+        <v>231.1653009413208</v>
       </c>
       <c r="E20" t="n">
-        <v>189.112740136874</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037626</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666368</v>
+        <v>25.1411528766634</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801432</v>
+        <v>105.8656999389689</v>
       </c>
       <c r="L20" t="n">
-        <v>56.47914923314358</v>
+        <v>154.4296566533111</v>
       </c>
       <c r="M20" t="n">
-        <v>139.391868035044</v>
+        <v>237.3423754552114</v>
       </c>
       <c r="N20" t="n">
-        <v>216.8037652927433</v>
+        <v>314.7542727129108</v>
       </c>
       <c r="O20" t="n">
-        <v>252.9922659824229</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="P20" t="n">
-        <v>252.9922659824229</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.9922659824229</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="R20" t="n">
-        <v>252.9922659824229</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S20" t="n">
-        <v>252.9922659824229</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T20" t="n">
-        <v>350.9427734025907</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165512</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203405</v>
+        <v>387.6287300203401</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946105</v>
+        <v>357.39051039461</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984317</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>295.8203264602555</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="C21" t="n">
-        <v>295.8203264602555</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D21" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K21" t="n">
-        <v>46.88760930735565</v>
+        <v>46.88760930735563</v>
       </c>
       <c r="L21" t="n">
-        <v>144.8381167275234</v>
+        <v>46.88760930735563</v>
       </c>
       <c r="M21" t="n">
-        <v>212.9907034158993</v>
+        <v>144.8381167275231</v>
       </c>
       <c r="N21" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158986</v>
       </c>
       <c r="O21" t="n">
-        <v>310.941210836067</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q21" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="R21" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="S21" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="T21" t="n">
-        <v>395.7596259400716</v>
+        <v>295.8203264602548</v>
       </c>
       <c r="U21" t="n">
-        <v>395.7596259400716</v>
+        <v>195.881026980439</v>
       </c>
       <c r="V21" t="n">
-        <v>295.8203264602555</v>
+        <v>195.881026980439</v>
       </c>
       <c r="W21" t="n">
-        <v>295.8203264602555</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="X21" t="n">
-        <v>295.8203264602555</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="Y21" t="n">
-        <v>295.8203264602555</v>
+        <v>107.8544919986173</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271188</v>
+        <v>259.7349002271182</v>
       </c>
       <c r="C23" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413212</v>
+        <v>231.1653009413208</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368739</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037625</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666368</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J23" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K23" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L23" t="n">
-        <v>56.47914923314357</v>
+        <v>56.47914923314356</v>
       </c>
       <c r="M23" t="n">
-        <v>139.391868035044</v>
+        <v>139.3918680350439</v>
       </c>
       <c r="N23" t="n">
         <v>216.8037652927433</v>
@@ -6014,25 +6014,25 @@
         <v>252.9922659824229</v>
       </c>
       <c r="S23" t="n">
-        <v>252.9922659824229</v>
+        <v>350.9427734025904</v>
       </c>
       <c r="T23" t="n">
-        <v>307.981897236914</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="U23" t="n">
-        <v>386.882203616551</v>
+        <v>386.8822036165502</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400714</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203405</v>
+        <v>387.6287300203399</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946104</v>
+        <v>357.3905103946098</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984313</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K24" t="n">
-        <v>7.915192518801429</v>
+        <v>46.88760930735563</v>
       </c>
       <c r="L24" t="n">
-        <v>105.8656999389691</v>
+        <v>115.0401959957311</v>
       </c>
       <c r="M24" t="n">
-        <v>203.8162073591368</v>
+        <v>212.9907034158986</v>
       </c>
       <c r="N24" t="n">
-        <v>297.8091185199037</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="O24" t="n">
-        <v>395.7596259400714</v>
+        <v>310.9412108360661</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400714</v>
+        <v>395.7596259400707</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569544</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569544</v>
+        <v>389.6346686569537</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569544</v>
+        <v>289.6953691771379</v>
       </c>
       <c r="T24" t="n">
-        <v>307.7330909582495</v>
+        <v>289.6953691771379</v>
       </c>
       <c r="U24" t="n">
-        <v>207.7937914784335</v>
+        <v>289.6953691771379</v>
       </c>
       <c r="V24" t="n">
-        <v>107.8544919986175</v>
+        <v>207.7937914784331</v>
       </c>
       <c r="W24" t="n">
-        <v>7.915192518801429</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="X24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801414</v>
       </c>
     </row>
     <row r="26">
@@ -6203,64 +6203,64 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907652</v>
+        <v>886.1595461907656</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234784</v>
+        <v>759.9863691234789</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901221</v>
+        <v>599.7659673901226</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281019</v>
+        <v>407.5048206281024</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720944</v>
+        <v>199.4586982720949</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532373</v>
+        <v>64.06489698532368</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J26" t="n">
         <v>171.8005131365275</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511676</v>
       </c>
       <c r="L26" t="n">
         <v>636.6544414676671</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717252</v>
+        <v>930.2992674717248</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208038</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U26" t="n">
         <v>1742.697910668954</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W26" t="n">
         <v>1507.289002847043</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>357.2987574410928</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C27" t="n">
-        <v>357.2987574410928</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D27" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K27" t="n">
-        <v>75.0633417079229</v>
+        <v>75.06334170792289</v>
       </c>
       <c r="L27" t="n">
-        <v>193.753107909693</v>
+        <v>193.7531079096929</v>
       </c>
       <c r="M27" t="n">
         <v>377.0131310500095</v>
@@ -6324,31 +6324,31 @@
         <v>801.5495631391824</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.5495631391824</v>
+        <v>795.4246058560653</v>
       </c>
       <c r="R27" t="n">
-        <v>801.5495631391824</v>
+        <v>659.7398684615908</v>
       </c>
       <c r="S27" t="n">
-        <v>801.5495631391824</v>
+        <v>659.7398684615908</v>
       </c>
       <c r="T27" t="n">
-        <v>799.4437382695107</v>
+        <v>657.6340435919192</v>
       </c>
       <c r="U27" t="n">
-        <v>669.8932645411634</v>
+        <v>563.6962545907658</v>
       </c>
       <c r="V27" t="n">
-        <v>641.8243690161241</v>
+        <v>535.6273590657265</v>
       </c>
       <c r="W27" t="n">
-        <v>587.4366223177421</v>
+        <v>266.2287897960179</v>
       </c>
       <c r="X27" t="n">
-        <v>582.9394505057652</v>
+        <v>46.72079541271429</v>
       </c>
       <c r="Y27" t="n">
-        <v>357.2987574410928</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C28" t="n">
-        <v>82.03042295927334</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="D28" t="n">
-        <v>82.03042295927334</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="E28" t="n">
-        <v>82.03042295927334</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="F28" t="n">
-        <v>82.03042295927334</v>
+        <v>82.03042295927335</v>
       </c>
       <c r="G28" t="n">
-        <v>82.03042295927334</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="H28" t="n">
-        <v>93.34154704822885</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="I28" t="n">
-        <v>93.34154704822885</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="J28" t="n">
-        <v>185.4068418807071</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="K28" t="n">
-        <v>185.4068418807071</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="L28" t="n">
-        <v>185.4068418807071</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="M28" t="n">
-        <v>185.4068418807071</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="N28" t="n">
-        <v>185.4068418807071</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="O28" t="n">
-        <v>185.4068418807071</v>
+        <v>117.1608992936124</v>
       </c>
       <c r="P28" t="n">
-        <v>185.4068418807071</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="R28" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387768</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316163</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039571</v>
+        <v>160.3713220039569</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526071</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985768</v>
+        <v>49.5649648498576</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225252</v>
+        <v>40.41472135225247</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907656</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234789</v>
+        <v>759.9863691234782</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901227</v>
+        <v>599.7659673901219</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281025</v>
+        <v>407.5048206281016</v>
       </c>
       <c r="G29" t="n">
-        <v>199.458698272095</v>
+        <v>199.4586982720941</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532368</v>
+        <v>64.06489698532364</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365277</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511679</v>
+        <v>377.3583775511678</v>
       </c>
       <c r="L29" t="n">
         <v>636.6544414676673</v>
@@ -6482,28 +6482,28 @@
         <v>1662.834462498259</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208038</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.746727067316</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K30" t="n">
-        <v>75.0633417079229</v>
+        <v>75.06334170792289</v>
       </c>
       <c r="L30" t="n">
-        <v>193.753107909693</v>
+        <v>193.7531079096929</v>
       </c>
       <c r="M30" t="n">
         <v>377.0131310500095</v>
@@ -6561,31 +6561,31 @@
         <v>801.5495631391824</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.4246058560653</v>
+        <v>801.5495631391824</v>
       </c>
       <c r="R30" t="n">
-        <v>659.7398684615908</v>
+        <v>665.8648257447079</v>
       </c>
       <c r="S30" t="n">
-        <v>466.3322474777213</v>
+        <v>472.4572047608384</v>
       </c>
       <c r="T30" t="n">
-        <v>249.2156000367229</v>
+        <v>373.2985025994923</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6025294566696</v>
+        <v>133.6746094481122</v>
       </c>
       <c r="V30" t="n">
-        <v>196.5336339316304</v>
+        <v>105.6057139230731</v>
       </c>
       <c r="W30" t="n">
-        <v>103.620800451651</v>
+        <v>51.21796722469116</v>
       </c>
       <c r="X30" t="n">
-        <v>99.12362863967414</v>
+        <v>46.72079541271426</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.49375814632855</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09092491936868</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="L31" t="n">
-        <v>215.7716343178212</v>
+        <v>84.04417836936599</v>
       </c>
       <c r="M31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="N31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387765</v>
+        <v>247.9206018387764</v>
       </c>
       <c r="T31" t="n">
-        <v>236.932487631616</v>
+        <v>236.9324876316159</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039569</v>
+        <v>160.3713220039568</v>
       </c>
       <c r="V31" t="n">
         <v>127.7972807526069</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985757</v>
+        <v>49.56496484985755</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225246</v>
+        <v>40.41472135225244</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.891650267094</v>
+        <v>1024.891650267093</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907656</v>
+        <v>886.1595461907647</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234789</v>
+        <v>759.986369123478</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901226</v>
+        <v>599.7659673901217</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281023</v>
+        <v>407.5048206281014</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720949</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532376</v>
+        <v>64.06489698532367</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J32" t="n">
         <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511676</v>
+        <v>377.3583775511678</v>
       </c>
       <c r="L32" t="n">
-        <v>636.654441467667</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717245</v>
+        <v>930.2992674717243</v>
       </c>
       <c r="N32" t="n">
         <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.013473208038</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.746727067316</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792289</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0131310500093</v>
+        <v>377.0131310500095</v>
       </c>
       <c r="N33" t="n">
-        <v>583.5433912625119</v>
+        <v>583.5433912625122</v>
       </c>
       <c r="O33" t="n">
-        <v>716.7311480351774</v>
+        <v>716.7311480351777</v>
       </c>
       <c r="P33" t="n">
-        <v>801.5495631391819</v>
+        <v>801.5495631391824</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560653</v>
       </c>
       <c r="R33" t="n">
-        <v>801.5495631391819</v>
+        <v>659.7398684615908</v>
       </c>
       <c r="S33" t="n">
-        <v>801.5495631391819</v>
+        <v>466.3322474777213</v>
       </c>
       <c r="T33" t="n">
-        <v>799.4437382695103</v>
+        <v>464.2264226080497</v>
       </c>
       <c r="U33" t="n">
-        <v>559.8198451181302</v>
+        <v>224.6025294566696</v>
       </c>
       <c r="V33" t="n">
-        <v>531.7509495930909</v>
+        <v>196.5336339316304</v>
       </c>
       <c r="W33" t="n">
-        <v>262.3523803233822</v>
+        <v>142.1458872332485</v>
       </c>
       <c r="X33" t="n">
-        <v>99.12362863967422</v>
+        <v>46.72079541271429</v>
       </c>
       <c r="Y33" t="n">
-        <v>88.49375814632856</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C34" t="n">
-        <v>64.95371844984223</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D34" t="n">
-        <v>131.9550019037959</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E34" t="n">
-        <v>131.9550019037959</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F34" t="n">
-        <v>131.9550019037959</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G34" t="n">
-        <v>131.9550019037959</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H34" t="n">
-        <v>178.5675351316237</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I34" t="n">
-        <v>178.5675351316237</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J34" t="n">
-        <v>270.632829964102</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K34" t="n">
-        <v>270.632829964102</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L34" t="n">
-        <v>270.632829964102</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M34" t="n">
-        <v>270.632829964102</v>
+        <v>75.4539646987354</v>
       </c>
       <c r="N34" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="O34" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="P34" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="R34" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387768</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316163</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039571</v>
+        <v>160.3713220039569</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526071</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985768</v>
+        <v>49.5649648498576</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225252</v>
+        <v>40.41472135225247</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866081</v>
+        <v>821.1586532866074</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762341</v>
+        <v>710.4005212762337</v>
       </c>
       <c r="D35" t="n">
-        <v>612.2013162749025</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075013</v>
+        <v>479.9548866075007</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H35" t="n">
         <v>28.17573240056725</v>
@@ -6938,28 +6938,28 @@
         <v>191.3026106395686</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2777650760514</v>
+        <v>418.1283337612902</v>
       </c>
       <c r="L35" t="n">
-        <v>710.9911190143933</v>
+        <v>466.6922904756323</v>
       </c>
       <c r="M35" t="n">
-        <v>1032.053235040293</v>
+        <v>787.7544065015325</v>
       </c>
       <c r="N35" t="n">
-        <v>1109.465132297993</v>
+        <v>1103.315700983232</v>
       </c>
       <c r="O35" t="n">
-        <v>1383.803030211672</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="P35" t="n">
-        <v>1383.803030211672</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="Q35" t="n">
-        <v>1383.803030211672</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.827318336289</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="S35" t="n">
         <v>1390.827318336289</v>
@@ -6974,13 +6974,13 @@
         <v>1317.958854451376</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.634089668692</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180008</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208753</v>
+        <v>956.0397580208747</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>547.6176781455658</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C36" t="n">
-        <v>522.946768800877</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D36" t="n">
-        <v>362.1666525619087</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E36" t="n">
-        <v>188.6034486833232</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F36" t="n">
         <v>28.17573240056725</v>
@@ -7017,49 +7017,49 @@
         <v>28.17573240056725</v>
       </c>
       <c r="K36" t="n">
-        <v>67.14814918912143</v>
+        <v>67.14814918912147</v>
       </c>
       <c r="L36" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M36" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312081</v>
       </c>
       <c r="N36" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437106</v>
       </c>
       <c r="O36" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163761</v>
       </c>
       <c r="P36" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="Q36" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="R36" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="S36" t="n">
-        <v>793.6343706203805</v>
+        <v>600.2267496365112</v>
       </c>
       <c r="T36" t="n">
-        <v>793.6343706203805</v>
+        <v>600.2267496365112</v>
       </c>
       <c r="U36" t="n">
-        <v>793.6343706203805</v>
+        <v>600.2267496365112</v>
       </c>
       <c r="V36" t="n">
-        <v>793.5394471612964</v>
+        <v>517.0822960535795</v>
       </c>
       <c r="W36" t="n">
-        <v>767.1256725288695</v>
+        <v>247.6837267838709</v>
       </c>
       <c r="X36" t="n">
-        <v>547.6176781455658</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Y36" t="n">
-        <v>547.6176781455658</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
     <row r="37">
@@ -7102,34 +7102,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="M37" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="O37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U37" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W37" t="n">
         <v>28.17573240056725</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866078</v>
+        <v>821.1586532866071</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762343</v>
+        <v>710.4005212762335</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749025</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075014</v>
+        <v>479.9548866075006</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H38" t="n">
         <v>28.17573240056725</v>
@@ -7175,28 +7175,28 @@
         <v>191.3026106395686</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2777650760514</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="L38" t="n">
-        <v>521.5568487130892</v>
+        <v>478.0159645779106</v>
       </c>
       <c r="M38" t="n">
-        <v>604.4695675149894</v>
+        <v>799.0780806038108</v>
       </c>
       <c r="N38" t="n">
-        <v>920.0308619966886</v>
+        <v>1114.63937508551</v>
       </c>
       <c r="O38" t="n">
-        <v>956.2193626863681</v>
+        <v>1150.82787577519</v>
       </c>
       <c r="P38" t="n">
-        <v>1181.107235383051</v>
+        <v>1375.715748471872</v>
       </c>
       <c r="Q38" t="n">
-        <v>1331.703268597635</v>
+        <v>1375.715748471872</v>
       </c>
       <c r="R38" t="n">
-        <v>1377.653598896911</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="S38" t="n">
         <v>1390.827318336289</v>
@@ -7214,10 +7214,10 @@
         <v>1219.634089668691</v>
       </c>
       <c r="X38" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208748</v>
+        <v>956.0397580208742</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>230.8192648839789</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C39" t="n">
-        <v>230.8192648839789</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D39" t="n">
-        <v>230.8192648839789</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E39" t="n">
-        <v>230.8192648839789</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F39" t="n">
-        <v>230.8192648839789</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G39" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H39" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I39" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J39" t="n">
         <v>28.17573240056725</v>
       </c>
       <c r="K39" t="n">
-        <v>67.14814918912143</v>
+        <v>67.14814918912147</v>
       </c>
       <c r="L39" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M39" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312081</v>
       </c>
       <c r="N39" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437106</v>
       </c>
       <c r="O39" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163761</v>
       </c>
       <c r="P39" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="Q39" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="R39" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="S39" t="n">
-        <v>594.1017923533939</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="T39" t="n">
-        <v>376.9851449123955</v>
+        <v>576.5177231793824</v>
       </c>
       <c r="U39" t="n">
-        <v>376.9851449123955</v>
+        <v>576.5177231793824</v>
       </c>
       <c r="V39" t="n">
-        <v>376.8902214533114</v>
+        <v>576.4227997202983</v>
       </c>
       <c r="W39" t="n">
-        <v>230.8192648839789</v>
+        <v>550.0090250878714</v>
       </c>
       <c r="X39" t="n">
-        <v>230.8192648839789</v>
+        <v>432.3522783921747</v>
       </c>
       <c r="Y39" t="n">
-        <v>230.8192648839789</v>
+        <v>206.7115853275023</v>
       </c>
     </row>
     <row r="40">
@@ -7318,55 +7318,55 @@
         <v>28.17573240056725</v>
       </c>
       <c r="F40" t="n">
-        <v>128.7875162283049</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="M40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="O40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="P40" t="n">
-        <v>131.6213389844605</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W40" t="n">
         <v>28.17573240056725</v>
@@ -7388,7 +7388,7 @@
         <v>821.1586532866072</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762335</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D41" t="n">
         <v>612.201316274902</v>
@@ -7397,55 +7397,55 @@
         <v>479.9548866075006</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114353</v>
+        <v>315.6677119114356</v>
       </c>
       <c r="G41" t="n">
         <v>135.5955616213834</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2777650760513</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L41" t="n">
-        <v>710.9911190143931</v>
+        <v>314.8890863389092</v>
       </c>
       <c r="M41" t="n">
-        <v>793.9038378162934</v>
+        <v>397.8018051408096</v>
       </c>
       <c r="N41" t="n">
-        <v>1109.465132297993</v>
+        <v>713.3630996225088</v>
       </c>
       <c r="O41" t="n">
-        <v>1383.803030211672</v>
+        <v>987.7009975361882</v>
       </c>
       <c r="P41" t="n">
-        <v>1383.803030211672</v>
+        <v>1212.588870232871</v>
       </c>
       <c r="Q41" t="n">
-        <v>1390.827318336289</v>
+        <v>1331.703268597635</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.827318336289</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="S41" t="n">
         <v>1390.827318336289</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.786620028363</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="U41" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W41" t="n">
         <v>1219.634089668691</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>457.6119306148474</v>
+        <v>171.3394930561151</v>
       </c>
       <c r="C42" t="n">
-        <v>457.6119306148474</v>
+        <v>171.3394930561151</v>
       </c>
       <c r="D42" t="n">
-        <v>296.8318143758792</v>
+        <v>171.3394930561151</v>
       </c>
       <c r="E42" t="n">
-        <v>296.8318143758792</v>
+        <v>171.3394930561151</v>
       </c>
       <c r="F42" t="n">
-        <v>136.4040980931233</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G42" t="n">
-        <v>136.4040980931233</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H42" t="n">
-        <v>136.4040980931233</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912147</v>
       </c>
       <c r="L42" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M42" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312081</v>
       </c>
       <c r="N42" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437106</v>
       </c>
       <c r="O42" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163761</v>
       </c>
       <c r="P42" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="Q42" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203808</v>
       </c>
       <c r="R42" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259063</v>
       </c>
       <c r="S42" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259063</v>
       </c>
       <c r="T42" t="n">
-        <v>727.1054233436403</v>
+        <v>440.8329857849079</v>
       </c>
       <c r="U42" t="n">
-        <v>727.1054233436403</v>
+        <v>440.8329857849079</v>
       </c>
       <c r="V42" t="n">
-        <v>727.0104998845561</v>
+        <v>197.753267688542</v>
       </c>
       <c r="W42" t="n">
-        <v>457.6119306148474</v>
+        <v>171.3394930561151</v>
       </c>
       <c r="X42" t="n">
-        <v>457.6119306148474</v>
+        <v>171.3394930561151</v>
       </c>
       <c r="Y42" t="n">
-        <v>457.6119306148474</v>
+        <v>171.3394930561151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="M43" t="n">
-        <v>131.6213389844607</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="O43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="P43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="U43" t="n">
-        <v>83.03414542275657</v>
+        <v>83.0341454227565</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736162</v>
+        <v>78.43407623736158</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.158653286608</v>
+        <v>821.1586532866071</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762343</v>
+        <v>710.4005212762333</v>
       </c>
       <c r="D44" t="n">
-        <v>612.2013162749024</v>
+        <v>612.2013162749016</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075008</v>
+        <v>479.9548866075004</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114352</v>
       </c>
       <c r="G44" t="n">
         <v>135.5955616213834</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J44" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K44" t="n">
-        <v>191.3026106395686</v>
+        <v>261.15088683705</v>
       </c>
       <c r="L44" t="n">
-        <v>478.0159645779106</v>
+        <v>309.7148435513922</v>
       </c>
       <c r="M44" t="n">
-        <v>604.4695675149898</v>
+        <v>392.6275623532925</v>
       </c>
       <c r="N44" t="n">
-        <v>681.8814647726891</v>
+        <v>708.1888568349917</v>
       </c>
       <c r="O44" t="n">
-        <v>956.2193626863685</v>
+        <v>974.1786643784418</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1199.066537075124</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1349.662570289708</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.786620028363</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="U44" t="n">
         <v>1399.095053358692</v>
@@ -7685,13 +7685,13 @@
         <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.634089668692</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.202001180008</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208751</v>
+        <v>956.0397580208742</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>499.6242641787433</v>
+        <v>188.9558486395355</v>
       </c>
       <c r="C45" t="n">
-        <v>499.6242641787433</v>
+        <v>188.9558486395355</v>
       </c>
       <c r="D45" t="n">
-        <v>338.844147939775</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E45" t="n">
-        <v>338.844147939775</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F45" t="n">
-        <v>178.416431657019</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G45" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H45" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I45" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J45" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K45" t="n">
         <v>67.14814918912148</v>
@@ -7749,28 +7749,28 @@
         <v>793.634370620381</v>
       </c>
       <c r="R45" t="n">
-        <v>657.9496332259065</v>
+        <v>793.634370620381</v>
       </c>
       <c r="S45" t="n">
-        <v>657.9496332259065</v>
+        <v>793.634370620381</v>
       </c>
       <c r="T45" t="n">
-        <v>657.9496332259065</v>
+        <v>576.5177231793826</v>
       </c>
       <c r="U45" t="n">
-        <v>526.1329622702543</v>
+        <v>576.5177231793826</v>
       </c>
       <c r="V45" t="n">
-        <v>526.0380388111702</v>
+        <v>576.4227997202985</v>
       </c>
       <c r="W45" t="n">
-        <v>499.6242641787433</v>
+        <v>307.0242304505898</v>
       </c>
       <c r="X45" t="n">
-        <v>499.6242641787433</v>
+        <v>307.0242304505898</v>
       </c>
       <c r="Y45" t="n">
-        <v>499.6242641787433</v>
+        <v>188.9558486395355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="F46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="M46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="N46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="O46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P46" t="n">
-        <v>28.17573240056726</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q46" t="n">
         <v>131.6213389844607</v>
@@ -7837,19 +7837,19 @@
         <v>131.6213389844607</v>
       </c>
       <c r="U46" t="n">
-        <v>83.03414542275657</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736162</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125988</v>
+        <v>189.2568876825056</v>
       </c>
       <c r="M12" t="n">
-        <v>215.6056533098496</v>
+        <v>116.6657468248317</v>
       </c>
       <c r="N12" t="n">
-        <v>196.9397686233746</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6887073069575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>141.2745637540582</v>
+        <v>141.274563754058</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125988</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098494</v>
       </c>
       <c r="N15" t="n">
         <v>101.9974341175493</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L18" t="n">
-        <v>189.256887682506</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M18" t="n">
-        <v>116.6657468248317</v>
+        <v>215.6056533098494</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9373406025672</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271815</v>
+        <v>129.9568629762668</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>219.3557975125988</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M21" t="n">
-        <v>185.5067434797569</v>
+        <v>215.6056533098494</v>
       </c>
       <c r="N21" t="n">
-        <v>101.9974341175493</v>
+        <v>170.8384307724741</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125987</v>
+        <v>189.2568876825056</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098494</v>
       </c>
       <c r="N24" t="n">
-        <v>196.9397686233745</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O24" t="n">
-        <v>219.6296017271815</v>
+        <v>120.6896952421636</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6887073069575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.79147670753352</v>
+        <v>173.7313831925515</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>149.849640195897</v>
       </c>
       <c r="D11" t="n">
-        <v>137.4163024569454</v>
+        <v>137.4163024569455</v>
       </c>
       <c r="E11" t="n">
-        <v>171.1230548763542</v>
+        <v>171.1230548763543</v>
       </c>
       <c r="F11" t="n">
-        <v>202.8433924547316</v>
+        <v>202.8433924547317</v>
       </c>
       <c r="G11" t="n">
-        <v>119.530611807761</v>
+        <v>119.5306118077613</v>
       </c>
       <c r="H11" t="n">
-        <v>146.5447204342349</v>
+        <v>109.1921913108324</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562701</v>
+        <v>40.1990895056271</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312416</v>
+        <v>26.89230219312425</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575472</v>
+        <v>22.05838072575479</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238701</v>
+        <v>21.58401993885252</v>
       </c>
       <c r="W11" t="n">
-        <v>137.540606640485</v>
+        <v>38.60070015546739</v>
       </c>
       <c r="X11" t="n">
-        <v>60.48695062440632</v>
+        <v>159.4268571094243</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.5771811097651</v>
+        <v>181.9297102331681</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.79497950003598</v>
+        <v>173.7313831925515</v>
       </c>
       <c r="C14" t="n">
-        <v>149.849640195897</v>
+        <v>50.90973371087929</v>
       </c>
       <c r="D14" t="n">
         <v>137.4163024569454</v>
       </c>
       <c r="E14" t="n">
-        <v>72.1831483913364</v>
+        <v>171.1230548763543</v>
       </c>
       <c r="F14" t="n">
         <v>202.8433924547316</v>
       </c>
       <c r="G14" t="n">
-        <v>218.470518292779</v>
+        <v>131.3242486607755</v>
       </c>
       <c r="H14" t="n">
         <v>146.544720434235</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.19908950562707</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312424</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575477</v>
       </c>
       <c r="U14" t="n">
         <v>49.79374050860088</v>
@@ -23555,13 +23555,13 @@
         <v>120.5239264238702</v>
       </c>
       <c r="W14" t="n">
-        <v>137.540606640485</v>
+        <v>38.60070015546736</v>
       </c>
       <c r="X14" t="n">
-        <v>159.4268571094243</v>
+        <v>60.4869506244066</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.98980374815014</v>
+        <v>181.929710233168</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-2.593480985524366e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.859934511434403e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.669775429036235e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656674.9548598794</v>
+        <v>656674.9548598793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656674.9548598793</v>
+        <v>656674.9548598794</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>881931.9951764601</v>
+      </c>
+      <c r="C2" t="n">
         <v>881931.99517646</v>
-      </c>
-      <c r="C2" t="n">
-        <v>881931.9951764599</v>
       </c>
       <c r="D2" t="n">
         <v>881931.99517646</v>
       </c>
       <c r="E2" t="n">
-        <v>759990.089020479</v>
+        <v>759990.0890204795</v>
       </c>
       <c r="F2" t="n">
-        <v>759990.0890204796</v>
+        <v>759990.0890204794</v>
       </c>
       <c r="G2" t="n">
-        <v>883718.5488585358</v>
+        <v>883718.5488585361</v>
       </c>
       <c r="H2" t="n">
-        <v>883718.5488585359</v>
+        <v>883718.5488585357</v>
       </c>
       <c r="I2" t="n">
-        <v>883718.5488585358</v>
+        <v>883718.5488585361</v>
       </c>
       <c r="J2" t="n">
+        <v>883718.5488585355</v>
+      </c>
+      <c r="K2" t="n">
         <v>883718.5488585352</v>
       </c>
-      <c r="K2" t="n">
-        <v>883718.5488585355</v>
-      </c>
       <c r="L2" t="n">
-        <v>883718.5488585348</v>
+        <v>883718.5488585351</v>
       </c>
       <c r="M2" t="n">
+        <v>883718.5488585364</v>
+      </c>
+      <c r="N2" t="n">
+        <v>883718.5488585366</v>
+      </c>
+      <c r="O2" t="n">
         <v>883718.5488585365</v>
       </c>
-      <c r="N2" t="n">
-        <v>883718.5488585365</v>
-      </c>
-      <c r="O2" t="n">
-        <v>883718.5488585364</v>
-      </c>
       <c r="P2" t="n">
-        <v>883718.5488585368</v>
+        <v>883718.5488585362</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.0445868052</v>
+        <v>273465.044586805</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.8157439612</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.8973352049</v>
+        <v>158845.8973352048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
         <v>103592.8157439611</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623644</v>
+        <v>22155.38587623637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252962</v>
+        <v>66695.75573252959</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>467253.6573030353</v>
       </c>
       <c r="E4" t="n">
-        <v>361182.2424006843</v>
+        <v>361182.2424006842</v>
       </c>
       <c r="F4" t="n">
-        <v>361182.2424006843</v>
+        <v>361182.2424006842</v>
       </c>
       <c r="G4" t="n">
-        <v>431700.8089139007</v>
+        <v>431700.8089139006</v>
       </c>
       <c r="H4" t="n">
         <v>431700.8089139007</v>
       </c>
       <c r="I4" t="n">
-        <v>431700.8089139007</v>
+        <v>431700.8089139006</v>
       </c>
       <c r="J4" t="n">
-        <v>430647.4817506725</v>
+        <v>430647.4817506726</v>
       </c>
       <c r="K4" t="n">
         <v>430647.4817506726</v>
       </c>
       <c r="L4" t="n">
-        <v>430647.4817506726</v>
+        <v>430647.4817506725</v>
       </c>
       <c r="M4" t="n">
-        <v>430205.641534786</v>
+        <v>430205.6415347859</v>
       </c>
       <c r="N4" t="n">
-        <v>430205.641534786</v>
+        <v>430205.6415347859</v>
       </c>
       <c r="O4" t="n">
-        <v>430205.641534786</v>
+        <v>430205.6415347859</v>
       </c>
       <c r="P4" t="n">
         <v>430205.6415347859</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439978</v>
+        <v>25128.77385439975</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439977</v>
+        <v>25128.77385439976</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="J5" t="n">
         <v>47593.60131544279</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="L5" t="n">
         <v>47593.60131544279</v>
       </c>
       <c r="M5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="N5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="O5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="P5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381050.7378734248</v>
+        <v>381046.2714892197</v>
       </c>
       <c r="C6" t="n">
-        <v>381050.7378734246</v>
+        <v>381046.2714892195</v>
       </c>
       <c r="D6" t="n">
-        <v>381050.7378734248</v>
+        <v>381046.2714892196</v>
       </c>
       <c r="E6" t="n">
-        <v>100214.0281785898</v>
+        <v>99904.70702899537</v>
       </c>
       <c r="F6" t="n">
-        <v>373679.0727653955</v>
+        <v>373369.7516158003</v>
       </c>
       <c r="G6" t="n">
-        <v>312409.9698128004</v>
+        <v>312409.9698128007</v>
       </c>
       <c r="H6" t="n">
-        <v>416002.7855567616</v>
+        <v>416002.7855567614</v>
       </c>
       <c r="I6" t="n">
-        <v>416002.7855567615</v>
+        <v>416002.7855567618</v>
       </c>
       <c r="J6" t="n">
-        <v>246631.5684572151</v>
+        <v>246631.5684572154</v>
       </c>
       <c r="K6" t="n">
-        <v>405477.46579242</v>
+        <v>405477.4657924199</v>
       </c>
       <c r="L6" t="n">
-        <v>301884.6500484584</v>
+        <v>301884.6500484588</v>
       </c>
       <c r="M6" t="n">
-        <v>387451.2400273237</v>
+        <v>387451.2400273238</v>
       </c>
       <c r="N6" t="n">
-        <v>409606.6259035602</v>
+        <v>409606.6259035604</v>
       </c>
       <c r="O6" t="n">
-        <v>342910.8701710305</v>
+        <v>342910.8701710308</v>
       </c>
       <c r="P6" t="n">
-        <v>409606.6259035605</v>
+        <v>409606.62590356</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
         <v>200.3558571852818</v>
       </c>
       <c r="G2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="J2" t="n">
         <v>212.8607143456134</v>
@@ -26716,10 +26716,10 @@
         <v>212.8607143456134</v>
       </c>
       <c r="M2" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N2" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O2" t="n">
         <v>240.5549466909089</v>
@@ -26765,16 +26765,16 @@
         <v>104.1060083670287</v>
       </c>
       <c r="L3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670287</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670287</v>
       </c>
       <c r="N3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670287</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670287</v>
       </c>
       <c r="P3" t="n">
         <v>104.1060083670287</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="G4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="H4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501786</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="M4" t="n">
         <v>352.1966550070906</v>
@@ -26826,10 +26826,10 @@
         <v>352.1966550070906</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070907</v>
+        <v>352.1966550070906</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1966550070907</v>
+        <v>352.1966550070906</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>129.4910196799514</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566208</v>
+        <v>83.36969466566197</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529555</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566202</v>
+        <v>83.369694665662</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070907</v>
+        <v>352.1966550070906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>129.4910196799514</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566208</v>
+        <v>83.36969466566197</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J11" t="n">
-        <v>114.8344846805798</v>
+        <v>75.78032220706913</v>
       </c>
       <c r="K11" t="n">
-        <v>104.1664143511968</v>
+        <v>87.05009698452224</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>62.38586538433123</v>
       </c>
       <c r="P11" t="n">
         <v>13.39547932052241</v>
@@ -28135,28 +28135,28 @@
         <v>88.43774142365245</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3558571852819</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>72.88766535478177</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28217,25 +28217,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S12" t="n">
-        <v>110.5998670229503</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852819</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V12" t="n">
-        <v>200.3558571852819</v>
+        <v>141.7090144303846</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852819</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852819</v>
+        <v>173.8484052478032</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="13">
@@ -28254,34 +28254,34 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F13" t="n">
-        <v>200.3558571852819</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>200.3558571852819</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H13" t="n">
-        <v>200.3558571852819</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I13" t="n">
-        <v>186.7117237589744</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="K13" t="n">
         <v>66.41515229588836</v>
       </c>
       <c r="L13" t="n">
-        <v>31.36504828657053</v>
+        <v>130.3049547715882</v>
       </c>
       <c r="M13" t="n">
-        <v>24.38732889638564</v>
+        <v>115.3933707532646</v>
       </c>
       <c r="N13" t="n">
-        <v>114.6502518757158</v>
+        <v>15.71034539069792</v>
       </c>
       <c r="O13" t="n">
         <v>36.7308915636881</v>
@@ -28293,28 +28293,28 @@
         <v>126.7738576957196</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="14">
@@ -28348,7 +28348,7 @@
         <v>200.3558571852818</v>
       </c>
       <c r="J14" t="n">
-        <v>75.78032220706913</v>
+        <v>157.6039113254125</v>
       </c>
       <c r="K14" t="n">
         <v>5.226507866178892</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>62.38586538433123</v>
       </c>
       <c r="P14" t="n">
-        <v>112.3353858055403</v>
+        <v>13.39547932052241</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.70728944131</v>
+        <v>88.43774142365245</v>
       </c>
       <c r="R14" t="n">
         <v>194.140471641135</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>77.81058791264806</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>165.2913165281837</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28424,7 +28424,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I15" t="n">
-        <v>8.2061755506125</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J15" t="n">
         <v>51.87880489469026</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3278900205298</v>
@@ -28460,10 +28460,10 @@
         <v>200.3558571852818</v>
       </c>
       <c r="U15" t="n">
-        <v>172.0653144788134</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V15" t="n">
-        <v>141.7090144303843</v>
+        <v>141.7090144303846</v>
       </c>
       <c r="W15" t="n">
         <v>200.3558571852818</v>
@@ -28485,10 +28485,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>200.3558571852818</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>200.3558571852818</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28500,10 +28500,10 @@
         <v>200.3558571852818</v>
       </c>
       <c r="H16" t="n">
+        <v>165.7773474488177</v>
+      </c>
+      <c r="I16" t="n">
         <v>200.3558571852818</v>
-      </c>
-      <c r="I16" t="n">
-        <v>164.6938248359117</v>
       </c>
       <c r="J16" t="n">
         <v>119.8654670400798</v>
@@ -28512,22 +28512,22 @@
         <v>66.41515229588836</v>
       </c>
       <c r="L16" t="n">
-        <v>31.36504828657053</v>
+        <v>130.3049547715882</v>
       </c>
       <c r="M16" t="n">
-        <v>24.38732889638564</v>
+        <v>88.30116383356284</v>
       </c>
       <c r="N16" t="n">
-        <v>16.99372678835576</v>
+        <v>15.71034539069792</v>
       </c>
       <c r="O16" t="n">
         <v>36.7308915636881</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382179</v>
+        <v>156.7784686382176</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.3558571852818</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R16" t="n">
         <v>200.3558571852818</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I17" t="n">
         <v>240.5549466909089</v>
@@ -28609,28 +28609,28 @@
         <v>88.43774142365245</v>
       </c>
       <c r="R17" t="n">
-        <v>249.6855537163787</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
         <v>227.2481593784061</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4142379110366</v>
+        <v>321.3541443960543</v>
       </c>
       <c r="U17" t="n">
-        <v>329.8468768652332</v>
+        <v>295.4191457115396</v>
       </c>
       <c r="V17" t="n">
-        <v>329.8468768652332</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="18">
@@ -28652,10 +28652,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>59.88353263491044</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>49.79838577886937</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H18" t="n">
         <v>125.6745619188949</v>
@@ -28688,28 +28688,28 @@
         <v>6.063707710285829</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>47.1816203885262</v>
       </c>
       <c r="S18" t="n">
-        <v>104.3272751420271</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T18" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>167.7646770919937</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490079</v>
       </c>
     </row>
     <row r="19">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I20" t="n">
         <v>240.5549466909089</v>
@@ -28825,7 +28825,7 @@
         <v>75.78032220706913</v>
       </c>
       <c r="K20" t="n">
-        <v>5.226507866178892</v>
+        <v>104.1664143511966</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>88.43774142365245</v>
       </c>
       <c r="R20" t="n">
-        <v>194.140471641135</v>
+        <v>239.4100196587918</v>
       </c>
       <c r="S20" t="n">
         <v>227.2481593784061</v>
       </c>
       <c r="T20" t="n">
-        <v>321.3541443960545</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U20" t="n">
-        <v>286.452052455459</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652332</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="21">
@@ -28880,16 +28880,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>88.57824503934825</v>
       </c>
       <c r="D21" t="n">
-        <v>72.02604544457485</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>72.88766535478177</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>59.88353263491044</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7382922638873</v>
@@ -28931,16 +28931,16 @@
         <v>191.4735447740308</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9454809665884</v>
+        <v>116.0055744815707</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V21" t="n">
-        <v>141.7090144303843</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>179.5583139450081</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I23" t="n">
         <v>240.5549466909089</v>
@@ -29086,25 +29086,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2481593784061</v>
+        <v>326.1880658634237</v>
       </c>
       <c r="T23" t="n">
-        <v>277.9593199862801</v>
+        <v>258.7166926726122</v>
       </c>
       <c r="U23" t="n">
-        <v>329.8468768652332</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="24">
@@ -29165,22 +29165,22 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4735447740308</v>
+        <v>92.53363828901317</v>
       </c>
       <c r="T24" t="n">
-        <v>133.8629190448705</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U24" t="n">
-        <v>138.2877477348484</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V24" t="n">
-        <v>141.7090144303844</v>
+        <v>159.5663589936845</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7646770919937</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29305,7 +29305,7 @@
         <v>212.8607143456134</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456139</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="N26" t="n">
         <v>212.8607143456134</v>
@@ -29357,13 +29357,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7382922638873</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4735447740308</v>
@@ -29408,19 +29408,19 @@
         <v>212.8607143456134</v>
       </c>
       <c r="U27" t="n">
-        <v>108.9726852288024</v>
+        <v>144.2292431087244</v>
       </c>
       <c r="V27" t="n">
         <v>212.8607143456134</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>212.8607143456134</v>
-      </c>
-      <c r="X27" t="n">
-        <v>212.8607143456134</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29445,16 +29445,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6954829817093</v>
+        <v>204.1808126123549</v>
       </c>
       <c r="H28" t="n">
-        <v>177.2027253164495</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I28" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J28" t="n">
-        <v>212.8607143456134</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K28" t="n">
         <v>66.41515229588836</v>
@@ -29472,10 +29472,10 @@
         <v>36.7308915636881</v>
       </c>
       <c r="P28" t="n">
-        <v>57.83856215319999</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8607143456134</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R28" t="n">
         <v>203.1920160450731</v>
@@ -29554,7 +29554,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456126</v>
       </c>
       <c r="R29" t="n">
         <v>212.8607143456135</v>
@@ -29612,7 +29612,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -29642,16 +29642,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>116.7783658268558</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="W30" t="n">
-        <v>174.720878431832</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X30" t="n">
         <v>212.8607143456135</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>193.6202799981828</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29697,10 +29697,10 @@
         <v>66.41515229588836</v>
       </c>
       <c r="L31" t="n">
+        <v>31.36504828657053</v>
+      </c>
+      <c r="M31" t="n">
         <v>212.8607143456135</v>
-      </c>
-      <c r="M31" t="n">
-        <v>79.80267803404259</v>
       </c>
       <c r="N31" t="n">
         <v>15.71034539069792</v>
@@ -29779,13 +29779,13 @@
         <v>212.8607143456134</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456127</v>
       </c>
       <c r="N32" t="n">
         <v>212.8607143456134</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8607143456147</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="P32" t="n">
         <v>212.8607143456134</v>
@@ -29849,7 +29849,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,13 +29870,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>212.8607143456134</v>
@@ -29888,10 +29888,10 @@
         <v>212.8607143456134</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X33" t="n">
-        <v>55.71645027259967</v>
+        <v>122.8420735371418</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8607143456134</v>
@@ -29907,10 +29907,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>195.6115178714406</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8607143456134</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,34 +29922,34 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8607143456134</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I34" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J34" t="n">
+        <v>119.8654670400798</v>
+      </c>
+      <c r="K34" t="n">
+        <v>66.41515229588836</v>
+      </c>
+      <c r="L34" t="n">
+        <v>31.36504828657053</v>
+      </c>
+      <c r="M34" t="n">
+        <v>64.14797513817024</v>
+      </c>
+      <c r="N34" t="n">
         <v>212.8607143456134</v>
       </c>
-      <c r="K34" t="n">
-        <v>66.41515229588839</v>
-      </c>
-      <c r="L34" t="n">
-        <v>31.36504828657057</v>
-      </c>
-      <c r="M34" t="n">
-        <v>24.38732889638567</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.71034539069795</v>
-      </c>
       <c r="O34" t="n">
-        <v>36.73089156368813</v>
+        <v>36.7308915636881</v>
       </c>
       <c r="P34" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7738576957197</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R34" t="n">
         <v>203.1920160450731</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="I35" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="J35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K35" t="n">
-        <v>240.554946690909</v>
+        <v>234.3433999083218</v>
       </c>
       <c r="L35" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="P35" t="n">
-        <v>13.39547932052248</v>
+        <v>13.39547932052241</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.43774142365251</v>
+        <v>88.43774142365245</v>
       </c>
       <c r="R35" t="n">
-        <v>201.2357121710507</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2481593784061</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="36">
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>163.0939512731239</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7382922638873</v>
@@ -30086,7 +30086,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J36" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R36" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9454809665884</v>
@@ -30122,10 +30122,10 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>240.554946690909</v>
+        <v>158.3359118682999</v>
       </c>
       <c r="W36" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30168,25 +30168,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K37" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L37" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M37" t="n">
-        <v>128.8778405972879</v>
+        <v>24.38732889638564</v>
       </c>
       <c r="N37" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069792</v>
       </c>
       <c r="O37" t="n">
-        <v>36.73089156368813</v>
+        <v>141.2214032645905</v>
       </c>
       <c r="P37" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.7738576957197</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R37" t="n">
         <v>203.1920160450731</v>
@@ -30198,13 +30198,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="I38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K38" t="n">
-        <v>240.554946690909</v>
+        <v>5.226507866178892</v>
       </c>
       <c r="L38" t="n">
-        <v>49.20719891181385</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.554946690909</v>
+        <v>88.43774142365245</v>
       </c>
       <c r="R38" t="n">
-        <v>240.554946690909</v>
+        <v>209.4046836253943</v>
       </c>
       <c r="S38" t="n">
-        <v>240.554946690909</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H39" t="n">
         <v>125.6745619188949</v>
@@ -30323,7 +30323,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R39" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30359,16 +30359,16 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W39" t="n">
-        <v>122.0943365733724</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>100.8327352107309</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30390,10 +30390,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>240.554946690909</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>171.5579302101493</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H40" t="n">
         <v>165.7773474488177</v>
@@ -30405,25 +30405,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K40" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L40" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M40" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638564</v>
       </c>
       <c r="N40" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069792</v>
       </c>
       <c r="O40" t="n">
-        <v>36.73089156368813</v>
+        <v>36.7308915636881</v>
       </c>
       <c r="P40" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7738576957197</v>
+        <v>231.2643693966221</v>
       </c>
       <c r="R40" t="n">
         <v>203.1920160450731</v>
@@ -30435,13 +30435,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U40" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V40" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W40" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,10 +30481,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5549466909089</v>
+        <v>75.78032220706913</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5549466909089</v>
+        <v>5.226507866178892</v>
       </c>
       <c r="L41" t="n">
         <v>240.5549466909089</v>
@@ -30499,16 +30499,16 @@
         <v>240.5549466909089</v>
       </c>
       <c r="P41" t="n">
-        <v>13.39547932052248</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.53298195356912</v>
+        <v>208.7553155294746</v>
       </c>
       <c r="R41" t="n">
-        <v>194.140471641135</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2481593784061</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T41" t="n">
         <v>240.5549466909089</v>
@@ -30542,13 +30542,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>17.09131607093602</v>
       </c>
       <c r="G42" t="n">
         <v>148.7382922638873</v>
@@ -30557,10 +30557,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J42" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740309</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T42" t="n">
-        <v>149.0818231626155</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30642,25 +30642,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K43" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L43" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M43" t="n">
-        <v>128.8778405972881</v>
+        <v>24.38732889638564</v>
       </c>
       <c r="N43" t="n">
-        <v>15.71034539069795</v>
+        <v>120.2008570916003</v>
       </c>
       <c r="O43" t="n">
-        <v>36.73089156368813</v>
+        <v>36.7308915636881</v>
       </c>
       <c r="P43" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7738576957197</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R43" t="n">
         <v>203.1920160450731</v>
@@ -30718,22 +30718,22 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J44" t="n">
+        <v>75.78032220706913</v>
+      </c>
+      <c r="K44" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="K44" t="n">
-        <v>5.226507866178885</v>
-      </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="M44" t="n">
-        <v>43.98069104563513</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>240.5549466909089</v>
+        <v>232.1225321755257</v>
       </c>
       <c r="P44" t="n">
         <v>240.5549466909089</v>
@@ -30748,7 +30748,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
         <v>240.5549466909089</v>
@@ -30785,10 +30785,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H45" t="n">
         <v>125.6745619188949</v>
@@ -30821,28 +30821,28 @@
         <v>6.063707710285826</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
         <v>191.4735447740308</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>106.7291499737706</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>106.4965881410819</v>
       </c>
     </row>
     <row r="46">
@@ -30882,7 +30882,7 @@
         <v>66.41515229588836</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657053</v>
+        <v>135.855559987473</v>
       </c>
       <c r="M46" t="n">
         <v>24.38732889638563</v>
@@ -30897,7 +30897,7 @@
         <v>57.83856215319999</v>
       </c>
       <c r="Q46" t="n">
-        <v>231.2643693966221</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R46" t="n">
         <v>203.1920160450731</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508689</v>
       </c>
       <c r="H32" t="n">
-        <v>4.286133299251583</v>
+        <v>4.286133299251587</v>
       </c>
       <c r="I32" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J32" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K32" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258263</v>
       </c>
       <c r="L32" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663513</v>
       </c>
       <c r="M32" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593782</v>
       </c>
       <c r="N32" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271297</v>
       </c>
       <c r="O32" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P32" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578568</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.19508627555763</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R32" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441354</v>
       </c>
       <c r="S32" t="n">
-        <v>9.536947399652924</v>
+        <v>9.536947399652934</v>
       </c>
       <c r="T32" t="n">
-        <v>1.832056488951428</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.0334813293240695</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045523</v>
       </c>
       <c r="H33" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001861</v>
       </c>
       <c r="I33" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086562</v>
       </c>
       <c r="J33" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K33" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L33" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386563</v>
       </c>
       <c r="M33" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003064</v>
       </c>
       <c r="N33" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411733</v>
       </c>
       <c r="O33" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P33" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852544</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R33" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S33" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990506</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356255</v>
       </c>
       <c r="H34" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622199</v>
       </c>
       <c r="I34" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067722</v>
       </c>
       <c r="J34" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K34" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L34" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M34" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037173</v>
       </c>
       <c r="N34" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O34" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P34" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R34" t="n">
-        <v>8.441119957103661</v>
+        <v>8.44111995710367</v>
       </c>
       <c r="S34" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124491</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885816</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508689</v>
       </c>
       <c r="H35" t="n">
-        <v>4.286133299251583</v>
+        <v>4.286133299251587</v>
       </c>
       <c r="I35" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J35" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K35" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258263</v>
       </c>
       <c r="L35" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663513</v>
       </c>
       <c r="M35" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593782</v>
       </c>
       <c r="N35" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271297</v>
       </c>
       <c r="O35" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P35" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578568</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.19508627555763</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R35" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441354</v>
       </c>
       <c r="S35" t="n">
-        <v>9.536947399652924</v>
+        <v>9.536947399652934</v>
       </c>
       <c r="T35" t="n">
-        <v>1.832056488951428</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.0334813293240695</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045523</v>
       </c>
       <c r="H36" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001861</v>
       </c>
       <c r="I36" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086562</v>
       </c>
       <c r="J36" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K36" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L36" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386563</v>
       </c>
       <c r="M36" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003064</v>
       </c>
       <c r="N36" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411733</v>
       </c>
       <c r="O36" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P36" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852544</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R36" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S36" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990506</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356255</v>
       </c>
       <c r="H37" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622199</v>
       </c>
       <c r="I37" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067722</v>
       </c>
       <c r="J37" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K37" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L37" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M37" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037173</v>
       </c>
       <c r="N37" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O37" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P37" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R37" t="n">
-        <v>8.441119957103661</v>
+        <v>8.44111995710367</v>
       </c>
       <c r="S37" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124491</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885816</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508689</v>
       </c>
       <c r="H38" t="n">
-        <v>4.286133299251583</v>
+        <v>4.286133299251587</v>
       </c>
       <c r="I38" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J38" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K38" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258263</v>
       </c>
       <c r="L38" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663513</v>
       </c>
       <c r="M38" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593782</v>
       </c>
       <c r="N38" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271297</v>
       </c>
       <c r="O38" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P38" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578568</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.19508627555763</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R38" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441354</v>
       </c>
       <c r="S38" t="n">
-        <v>9.536947399652924</v>
+        <v>9.536947399652934</v>
       </c>
       <c r="T38" t="n">
-        <v>1.832056488951428</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.0334813293240695</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045523</v>
       </c>
       <c r="H39" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001861</v>
       </c>
       <c r="I39" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086562</v>
       </c>
       <c r="J39" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K39" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L39" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386563</v>
       </c>
       <c r="M39" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003064</v>
       </c>
       <c r="N39" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411733</v>
       </c>
       <c r="O39" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P39" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852544</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R39" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S39" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990506</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356255</v>
       </c>
       <c r="H40" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622199</v>
       </c>
       <c r="I40" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067722</v>
       </c>
       <c r="J40" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K40" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L40" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M40" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037173</v>
       </c>
       <c r="N40" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O40" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P40" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R40" t="n">
-        <v>8.441119957103661</v>
+        <v>8.44111995710367</v>
       </c>
       <c r="S40" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124491</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885816</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508689</v>
       </c>
       <c r="H41" t="n">
-        <v>4.286133299251583</v>
+        <v>4.286133299251587</v>
       </c>
       <c r="I41" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J41" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K41" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258263</v>
       </c>
       <c r="L41" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663513</v>
       </c>
       <c r="M41" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593782</v>
       </c>
       <c r="N41" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271297</v>
       </c>
       <c r="O41" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P41" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578568</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.19508627555763</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R41" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441354</v>
       </c>
       <c r="S41" t="n">
-        <v>9.536947399652924</v>
+        <v>9.536947399652934</v>
       </c>
       <c r="T41" t="n">
-        <v>1.832056488951428</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.0334813293240695</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045523</v>
       </c>
       <c r="H42" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001861</v>
       </c>
       <c r="I42" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086562</v>
       </c>
       <c r="J42" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K42" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L42" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386563</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003064</v>
       </c>
       <c r="N42" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411733</v>
       </c>
       <c r="O42" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P42" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852544</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R42" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S42" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990506</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356255</v>
       </c>
       <c r="H43" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622199</v>
       </c>
       <c r="I43" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067722</v>
       </c>
       <c r="J43" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K43" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L43" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M43" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037173</v>
       </c>
       <c r="N43" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O43" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P43" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R43" t="n">
-        <v>8.441119957103661</v>
+        <v>8.44111995710367</v>
       </c>
       <c r="S43" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124491</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885816</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.05416247351064</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>98.9399064850179</v>
+        <v>81.82358911834335</v>
       </c>
       <c r="L11" t="n">
         <v>49.05450173165873</v>
@@ -35422,7 +35422,7 @@
         <v>78.19383561383778</v>
       </c>
       <c r="O11" t="n">
-        <v>36.55404110068645</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146898</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.36607756419618</v>
       </c>
       <c r="L12" t="n">
-        <v>98.9399064850179</v>
+        <v>68.84099665492471</v>
       </c>
       <c r="M12" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>94.94233450582527</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O12" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,34 +35550,34 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.67971597305683</v>
       </c>
       <c r="F13" t="n">
-        <v>61.42897496683526</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.66037420357257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.57850973646423</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.01789892306273</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.49039014520211</v>
+        <v>80.49039014520203</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>91.00604185687898</v>
       </c>
       <c r="N13" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>81.82358911834335</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>78.19383561383778</v>
       </c>
       <c r="O14" t="n">
-        <v>36.55404110068645</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.26954801765751</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>9.267167734103428</v>
+        <v>9.267167734103218</v>
       </c>
       <c r="L15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172183</v>
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>33.8986762133095</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.17320693457114</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35796,10 +35796,10 @@
         <v>31.66037420357251</v>
       </c>
       <c r="H16" t="n">
-        <v>34.57850973646417</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.66203234937015</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>63.91383493717721</v>
       </c>
       <c r="N16" t="n">
-        <v>1.283381397657842</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.58199948956221</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.54508207524367</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="U17" t="n">
-        <v>79.69727917135052</v>
+        <v>45.26954801765682</v>
       </c>
       <c r="V17" t="n">
-        <v>8.967093256081228</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.36607756419618</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>68.84099665492515</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O18" t="n">
-        <v>98.9399064850179</v>
+        <v>9.267167734103198</v>
       </c>
       <c r="P18" t="n">
         <v>85.67516677172183</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="L20" t="n">
         <v>49.05450173165873</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>45.26954801765682</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>36.30245476157629</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081228</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>39.36607756419618</v>
       </c>
       <c r="L21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>68.84099665492515</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>68.84099665492471</v>
       </c>
       <c r="O21" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="P21" t="n">
         <v>85.67516677172183</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="T23" t="n">
-        <v>55.54508207524349</v>
+        <v>36.30245476157554</v>
       </c>
       <c r="U23" t="n">
-        <v>79.69727917135052</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.967093256081228</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.36607756419618</v>
       </c>
       <c r="L24" t="n">
-        <v>98.93990648501786</v>
+        <v>68.84099665492471</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501786</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="N24" t="n">
-        <v>94.94233450582519</v>
+        <v>98.93990648501767</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501786</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576345</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N26" t="n">
         <v>291.0545499594512</v>
@@ -36616,7 +36616,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447841</v>
+        <v>18.72024270447844</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.40353337364107</v>
+        <v>46.4035333736411</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,16 +36741,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>35.48532963064554</v>
       </c>
       <c r="H28" t="n">
-        <v>11.42537786763183</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.99524730553362</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0221521924134</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.08685664989378</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>199.4652350250911</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219601</v>
       </c>
       <c r="R29" t="n">
         <v>18.72024270447847</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.43762974747205</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.4956660590429</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>55.41534913765695</v>
+        <v>188.4733854492278</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6109353576339</v>
+        <v>296.6109353576333</v>
       </c>
       <c r="N32" t="n">
         <v>291.0545499594512</v>
       </c>
       <c r="O32" t="n">
-        <v>249.414755446301</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4652350250909</v>
+        <v>199.465235025091</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447838</v>
+        <v>18.72024270447844</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419618</v>
       </c>
       <c r="L33" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M33" t="n">
         <v>185.1111344851682</v>
@@ -37160,10 +37160,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O33" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491571</v>
       </c>
       <c r="P33" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.15433689946823</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.67806409490271</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,13 +37218,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.08336689679574</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.99524730553361</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>39.76064624178459</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.1503689549155</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K35" t="n">
-        <v>235.32843882473</v>
+        <v>229.116892042143</v>
       </c>
       <c r="L35" t="n">
-        <v>289.6094484225677</v>
+        <v>49.05450173165873</v>
       </c>
       <c r="M35" t="n">
         <v>324.3051677029295</v>
       </c>
       <c r="N35" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,13 +37327,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.09524052991569</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>13.30678731250284</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987234</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419618</v>
       </c>
       <c r="L36" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M36" t="n">
         <v>185.1111344851682</v>
@@ -37397,10 +37397,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O36" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491571</v>
       </c>
       <c r="P36" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>104.4905117009024</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K38" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>98.26170064347251</v>
+        <v>289.6094484225677</v>
       </c>
       <c r="M38" t="n">
-        <v>83.75022101202049</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N38" t="n">
         <v>318.7487823047467</v>
       </c>
       <c r="O38" t="n">
-        <v>36.55404110068636</v>
+        <v>36.55404110068645</v>
       </c>
       <c r="P38" t="n">
         <v>227.1594673703865</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.1172052672565</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>46.41447504977393</v>
+        <v>15.26421198425924</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250288</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987234</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419618</v>
       </c>
       <c r="L39" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M39" t="n">
         <v>185.1111344851682</v>
@@ -37634,10 +37634,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O39" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491571</v>
       </c>
       <c r="P39" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37686,10 +37686,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.6280644724623</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.86244722843997</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>104.4905117009024</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7746244838397</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>289.6094484225675</v>
+        <v>289.6094484225677</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202049</v>
+        <v>83.75022101202057</v>
       </c>
       <c r="N41" t="n">
-        <v>318.7487823047466</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.1594673703865</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.095240529916608</v>
+        <v>120.3175741058221</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.30678731250287</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987229</v>
+        <v>18.14070877987232</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419618</v>
       </c>
       <c r="L42" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M42" t="n">
         <v>185.1111344851682</v>
@@ -37871,10 +37871,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O42" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491571</v>
       </c>
       <c r="P42" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.4905117009025</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>235.32843882473</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225677</v>
+        <v>49.05450173165875</v>
       </c>
       <c r="M44" t="n">
-        <v>127.7309120576557</v>
+        <v>83.75022101202059</v>
       </c>
       <c r="N44" t="n">
-        <v>78.19383561383779</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1089877915954</v>
+        <v>268.6765732762122</v>
       </c>
       <c r="P44" t="n">
         <v>227.1594673703865</v>
@@ -38044,7 +38044,7 @@
         <v>13.30678731250284</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987229</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>104.4905117009024</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.4905117009025</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
